--- a/BR_Excel.xlsx
+++ b/BR_Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marie/Desktop/Psychopy Test/BR_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BF595AC-DB3D-C843-B0BB-0AAAF3F7C55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7F3950-FE74-B24F-824D-BE5E652DC56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="6400" windowWidth="28040" windowHeight="16020" xr2:uid="{9E83239E-5293-604E-9471-8B111E0E87E4}"/>
+    <workbookView xWindow="0" yWindow="2300" windowWidth="28040" windowHeight="16020" xr2:uid="{9E83239E-5293-604E-9471-8B111E0E87E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <t>images/Practice_Gabor_copy.png</t>
   </si>
   <si>
-    <t>Cue</t>
+    <t>cue</t>
   </si>
 </sst>
 </file>
@@ -425,7 +425,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
